--- a/기획/테이블/아이템/아이템 스트링 테이블.xlsx
+++ b/기획/테이블/아이템/아이템 스트링 테이블.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\아이템\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8617B2-7655-442C-9492-0EF4A16A351C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2345B26F-3207-49E6-AA69-AD818E83500A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="3300" windowWidth="20220" windowHeight="11295" xr2:uid="{62A095A5-A77D-44EF-9916-5721925F82B5}"/>
+    <workbookView xWindow="4260" yWindow="3615" windowWidth="20220" windowHeight="11295" xr2:uid="{62A095A5-A77D-44EF-9916-5721925F82B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>iamgeStr19</t>
   </si>
@@ -153,12 +153,6 @@
     <t>Image</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>3333아이템입니다.</t>
   </si>
   <si>
@@ -214,13 +208,29 @@
   </si>
   <si>
     <t>3351아이템입니다.</t>
+  </si>
+  <si>
+    <t>effectConstInfoString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectScenarioString</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectExplanationString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>itemNameString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +243,13 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -259,10 +276,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -577,29 +595,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B846C68-B04D-4137-8490-1BD90D69BEB7}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D20"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3333</v>
       </c>
@@ -610,10 +637,10 @@
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3334</v>
       </c>
@@ -624,10 +651,10 @@
         <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3335</v>
       </c>
@@ -638,10 +665,10 @@
         <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3336</v>
       </c>
@@ -652,10 +679,10 @@
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3337</v>
       </c>
@@ -666,10 +693,10 @@
         <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3338</v>
       </c>
@@ -680,10 +707,10 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3339</v>
       </c>
@@ -694,10 +721,10 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3340</v>
       </c>
@@ -708,10 +735,10 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3341</v>
       </c>
@@ -722,10 +749,10 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3342</v>
       </c>
@@ -736,10 +763,10 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3343</v>
       </c>
@@ -750,10 +777,10 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3344</v>
       </c>
@@ -764,10 +791,10 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3345</v>
       </c>
@@ -778,10 +805,10 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3346</v>
       </c>
@@ -792,10 +819,10 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3347</v>
       </c>
@@ -806,7 +833,7 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -820,7 +847,7 @@
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -834,7 +861,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -848,7 +875,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -862,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/기획/테이블/아이템/아이템 스트링 테이블.xlsx
+++ b/기획/테이블/아이템/아이템 스트링 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\아이템\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2345B26F-3207-49E6-AA69-AD818E83500A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB75AA22-CAFF-401B-9854-19D3F4682F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="3615" windowWidth="20220" windowHeight="11295" xr2:uid="{62A095A5-A77D-44EF-9916-5721925F82B5}"/>
+    <workbookView xWindow="-90" yWindow="5415" windowWidth="20220" windowHeight="11295" xr2:uid="{62A095A5-A77D-44EF-9916-5721925F82B5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,180 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
-  <si>
-    <t>iamgeStr19</t>
-  </si>
-  <si>
-    <t>string19</t>
-  </si>
-  <si>
-    <t>iamgeStr18</t>
-  </si>
-  <si>
-    <t>string18</t>
-  </si>
-  <si>
-    <t>iamgeStr17</t>
-  </si>
-  <si>
-    <t>string17</t>
-  </si>
-  <si>
-    <t>iamgeStr16</t>
-  </si>
-  <si>
-    <t>string16</t>
-  </si>
-  <si>
-    <t>iamgeStr15</t>
-  </si>
-  <si>
-    <t>string15</t>
-  </si>
-  <si>
-    <t>iamgeStr14</t>
-  </si>
-  <si>
-    <t>string14</t>
-  </si>
-  <si>
-    <t>iamgeStr13</t>
-  </si>
-  <si>
-    <t>string13</t>
-  </si>
-  <si>
-    <t>iamgeStr12</t>
-  </si>
-  <si>
-    <t>string12</t>
-  </si>
-  <si>
-    <t>iamgeStr11</t>
-  </si>
-  <si>
-    <t>string11</t>
-  </si>
-  <si>
-    <t>iamgeStr10</t>
-  </si>
-  <si>
-    <t>string10</t>
-  </si>
-  <si>
-    <t>iamgeStr9</t>
-  </si>
-  <si>
-    <t>string9</t>
-  </si>
-  <si>
-    <t>iamgeStr8</t>
-  </si>
-  <si>
-    <t>string8</t>
-  </si>
-  <si>
-    <t>iamgeStr7</t>
-  </si>
-  <si>
-    <t>string7</t>
-  </si>
-  <si>
-    <t>iamgeStr6</t>
-  </si>
-  <si>
-    <t>string6</t>
-  </si>
-  <si>
-    <t>iamgeStr5</t>
-  </si>
-  <si>
-    <t>string5</t>
-  </si>
-  <si>
-    <t>iamgeStr4</t>
-  </si>
-  <si>
-    <t>string4</t>
-  </si>
-  <si>
-    <t>iamgeStr3</t>
-  </si>
-  <si>
-    <t>string3</t>
-  </si>
-  <si>
-    <t>iamgeStr2</t>
-  </si>
-  <si>
-    <t>string2</t>
-  </si>
-  <si>
-    <t>iamgeStr1</t>
-  </si>
-  <si>
-    <t>string1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>Image</t>
-  </si>
-  <si>
-    <t>3333아이템입니다.</t>
-  </si>
-  <si>
-    <t>3334아이템입니다.</t>
-  </si>
-  <si>
-    <t>3335아이템입니다.</t>
-  </si>
-  <si>
-    <t>3336아이템입니다.</t>
-  </si>
-  <si>
-    <t>3337아이템입니다.</t>
-  </si>
-  <si>
-    <t>3338아이템입니다.</t>
-  </si>
-  <si>
-    <t>3339아이템입니다.</t>
-  </si>
-  <si>
-    <t>3340아이템입니다.</t>
-  </si>
-  <si>
-    <t>3341아이템입니다.</t>
-  </si>
-  <si>
-    <t>3342아이템입니다.</t>
-  </si>
-  <si>
-    <t>3343아이템입니다.</t>
-  </si>
-  <si>
-    <t>3344아이템입니다.</t>
-  </si>
-  <si>
-    <t>3345아이템입니다.</t>
-  </si>
-  <si>
-    <t>3346아이템입니다.</t>
-  </si>
-  <si>
-    <t>3347아이템입니다.</t>
-  </si>
-  <si>
-    <t>3348아이템입니다.</t>
-  </si>
-  <si>
-    <t>3349아이템입니다.</t>
-  </si>
-  <si>
-    <t>3350아이템입니다.</t>
-  </si>
-  <si>
-    <t>3351아이템입니다.</t>
   </si>
   <si>
     <t>effectConstInfoString</t>
@@ -223,6 +52,230 @@
   </si>
   <si>
     <t>itemNameString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연엽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진흙의 화기를 머금은 방어구. 밟히고 한탄하는게 그들의 운명이었다. 찬란히 피어오를 붉은 꽃을 품고서.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극광선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무당과 북쪽의 한기가 만들어낸 방어구. 밤하늘의 오로라는 업화의 징조였다. 이것을 길들인 것은 두 세력의 뜻이 일치했기에 가능한 기적이었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착시 경화와 사풍이 상승한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착시 경화와 공격 속도가 상승한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경화 + 20, 사풍 + 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경화 + 10, 공격 속도 + 0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타오르는 진흙의 근원이 담긴 방어구. 쇠붙이의 민족조차 이 강직함을 넘진 못했다. 두드리고 불태워도, 결코 파괴되지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>박초바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 민족이 남긴 흔적. 바람의 민족은 언제나 존재했다. 설란은 가장 찬란했던 도읍을 지었음에도, 그들의 최후가 곁에 있음을 깨닫지 못했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착시 사풍과 이동 속도가 상승한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사풍 + 35, 이동 속도 + 200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사구의 모래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇳조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주구 조각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 제작시 재료로 사용된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돌개바람의 기운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시든 꽃잎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 아이가 되지 못한 어설픈 모래. 고운 재질을 가져 언제라도 안기고 싶은 기운을 풍긴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇠붙이를 사랑한 민족의 흔적. 작디 작은 조각이지만, 그 경도는 누구도 무시 못할 그들의 집착을 증명하고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무치는 한기를 담은 바람 기운. 이젠 찾을 수 없는 고유의 정체성마저 온전히 담겨있다. 바람은, 절대 잊지 않는다. 그것이 설령 풍화로 무너져 내린 것일지라도.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효력이 희미한 주구의 조각. 밤하늘을 보다보면, 무당은 사람이 아니게 된다는 속설이 있다. 주술은 그들이 깨우친 편린을 담은 행로였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>호령하던 생기가 마른 꽃잎의 조각. 시들었어도 끈질긴 그들의 역사만큼이나 손위에서 생동하는 잎이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노대바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석반을 더듬던 서고지기들의 호신 주구. 설란은 언제나 시셈과 도전을 받았다. 서고지기들이 무당에게 부탁한 주구는 최소한의 호신품이었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착시 사풍이 상승한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사풍 + 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>촛농받이 촛대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇠붙이를 다루던 민족의 호신 용품. 그들은 내리쳤다. 변하지 않을 것이라는 사실을 외면하고, 계속 내리쳤다. 그런 이들의 집념은 기어코 사물에 깃들어 전해졌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착시 사풍이 상승하고 이동 속도가 저하한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사풍 + 45, 이동 속도 - 150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제련사의 집게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정괴의 파편</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수림을 거닐던 민족의 흔적. 아득하리만큼 오래되었지만 여전히 착용자를 수호하려는 의지가 느껴진다. 정작, 이들을 기억하는 이는 아무도 없을 텐데.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착시 점성과 사풍이 상승한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점성 + 30, 사풍 + 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사풍 + 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미입니당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더미에용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트아이템1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트아이템2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람의 민족이 남긴 흔적. 극히 최근까지 존재했음에도 이를 아는 이는 극히 드물다. 끝까지 벌바람에 맞섰던 설란의 민족만이 대면했던 바람이니.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문경단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시커먼 형태의 경단. 설란의 극빈층이 먹던 경단으로 충분히 단단하여 무기로 쓸 수 있다. 경단의 재료는 그리 재밌지 못하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투척하여 맞는 몬스터에게 대미지 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>투척 아이템, 대미지 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품용 제단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무당들이 생계 유지용으로 팔던 기념품. 설령 대자연과 소통하던 무당일지라도, 사람이 살던 것과 별반 다르진 않았다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용시 제자리 바닥에 설치. 주변에 있으면 1초당 체력 2회복.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 아이템, 반경 400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장착시 점성과 경화가 상승한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점성 + 80, 경화 +30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -595,301 +648,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B846C68-B04D-4137-8490-1BD90D69BEB7}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="149" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3333</v>
+        <v>5000</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3334</v>
+        <v>5001</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3335</v>
+        <v>5002</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>60</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3336</v>
+        <v>5003</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3337</v>
+        <v>10000</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3338</v>
+        <v>10001</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3339</v>
+        <v>10002</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>3340</v>
+        <v>10003</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3341</v>
+        <v>15000</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3342</v>
+        <v>15001</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3343</v>
+        <v>17500</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>3344</v>
+        <v>17501</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3345</v>
+        <v>20000</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>3346</v>
+        <v>20001</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>3347</v>
+        <v>20002</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>3348</v>
+        <v>20003</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>3349</v>
+        <v>20004</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>3350</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>3351</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>57</v>
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
